--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -530,13 +530,13 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/09/2024</t>
+          <t>26/09/2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.abntcatalogo.com.br/pnm.aspx?Q=eW1yZDRBbUtscWxMTE1hcmlUZXFwcStiMUFRY0xqZU5LTm8rWDh2Mkk3bz0=</t>
+          <t>https://www.abntcatalogo.com.br/pnm.aspx?Q=eW1yZDRBbUtscW5iSC9Dd2VzTEZQcU9YYWNsTlNQekw3M1l2V1IvUzNXQT0=</t>
         </is>
       </c>
     </row>
@@ -558,20 +558,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Conforme</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>25/09/2024</t>
-        </is>
-      </c>
+          <t>Analisar</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://www.abntcatalogo.com.br/pnm.aspx?Q=K3JMYTcyeElkSUtHeTYycFNXQUJLbklRWXVlSEtFMGFZditxOXM3OEphST0=</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -530,13 +530,13 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/09/2024</t>
+          <t>07/10/2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.abntcatalogo.com.br/pnm.aspx?Q=eW1yZDRBbUtscW5iSC9Dd2VzTEZQcU9YYWNsTlNQekw3M1l2V1IvUzNXQT0=</t>
+          <t>https://www.abntcatalogo.com.br/pnm.aspx?Q=eW1yZDRBbUtscWxlU0YrTElZb044VU5XUC9ncjQxdTRieWdUblVPdm0vZz0=</t>
         </is>
       </c>
     </row>
@@ -551,19 +551,31 @@
           <t xml:space="preserve"> F2193</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Standard Specifications and Test Methods for  Components Used in the Surgical Fixation of the Spinal Skeletal  System</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>2020</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Analisar</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Conforme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.abntcatalogo.com.br/pnm.aspx?Q=K3JMYTcyeElkSUozV0NXbkdBWVl6ZFBmMXF4Y01RSlc0RVlBM0xvMU42ND0=</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
